--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hspg2-Itgb1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H2">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I2">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J2">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N2">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O2">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P2">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q2">
-        <v>27256.54313083051</v>
+        <v>19005.03531164808</v>
       </c>
       <c r="R2">
-        <v>245308.8881774746</v>
+        <v>171045.3178048327</v>
       </c>
       <c r="S2">
-        <v>0.112769733708602</v>
+        <v>0.1056140255665976</v>
       </c>
       <c r="T2">
-        <v>0.1313308600738936</v>
+        <v>0.1177173900496568</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H3">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I3">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J3">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>443.74299</v>
       </c>
       <c r="O3">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P3">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q3">
-        <v>29168.42710679273</v>
+        <v>23055.40996982481</v>
       </c>
       <c r="R3">
-        <v>262515.8439611346</v>
+        <v>207498.6897284233</v>
       </c>
       <c r="S3">
-        <v>0.1206798581075809</v>
+        <v>0.1281226063552265</v>
       </c>
       <c r="T3">
-        <v>0.140542936811556</v>
+        <v>0.1428054535899338</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H4">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I4">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J4">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N4">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O4">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P4">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q4">
-        <v>14646.4201590072</v>
+        <v>13015.92146276597</v>
       </c>
       <c r="R4">
-        <v>131817.7814310648</v>
+        <v>117143.2931648937</v>
       </c>
       <c r="S4">
-        <v>0.06059729926820018</v>
+        <v>0.07233156053642624</v>
       </c>
       <c r="T4">
-        <v>0.07057119999602163</v>
+        <v>0.08062075542417138</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H5">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I5">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J5">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N5">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O5">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P5">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q5">
-        <v>33376.98304127868</v>
+        <v>14194.84331409348</v>
       </c>
       <c r="R5">
-        <v>200261.8982476721</v>
+        <v>85169.05988456091</v>
       </c>
       <c r="S5">
-        <v>0.1380921077003368</v>
+        <v>0.07888301811097821</v>
       </c>
       <c r="T5">
-        <v>0.1072140823444994</v>
+        <v>0.05861533990677972</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H6">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I6">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J6">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N6">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O6">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P6">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q6">
-        <v>16733.63133599466</v>
+        <v>14002.68168437428</v>
       </c>
       <c r="R6">
-        <v>150602.6820239519</v>
+        <v>126024.1351593685</v>
       </c>
       <c r="S6">
-        <v>0.06923281285819233</v>
+        <v>0.07781514515303403</v>
       </c>
       <c r="T6">
-        <v>0.08062806002092877</v>
+        <v>0.08673275869002998</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>393.820518</v>
       </c>
       <c r="I7">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J7">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N7">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O7">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P7">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q7">
-        <v>18144.50392781985</v>
+        <v>16006.01305068893</v>
       </c>
       <c r="R7">
-        <v>163300.5353503786</v>
+        <v>144054.1174562004</v>
       </c>
       <c r="S7">
-        <v>0.07507008010493006</v>
+        <v>0.08894797846119666</v>
       </c>
       <c r="T7">
-        <v>0.08742610150585568</v>
+        <v>0.09914141439521758</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>393.820518</v>
       </c>
       <c r="I8">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J8">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>443.74299</v>
       </c>
       <c r="O8">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P8">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q8">
         <v>19417.23268674098</v>
@@ -948,10 +948,10 @@
         <v>174755.0941806688</v>
       </c>
       <c r="S8">
-        <v>0.08033579859820705</v>
+        <v>0.1079046724082198</v>
       </c>
       <c r="T8">
-        <v>0.09355852122421777</v>
+        <v>0.1202705449575835</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>393.820518</v>
       </c>
       <c r="I9">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J9">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N9">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O9">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P9">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q9">
-        <v>9750.026877143036</v>
+        <v>10961.99009280915</v>
       </c>
       <c r="R9">
-        <v>87750.24189428733</v>
+        <v>98657.91083528234</v>
       </c>
       <c r="S9">
-        <v>0.04033922898107552</v>
+        <v>0.06091753490261407</v>
       </c>
       <c r="T9">
-        <v>0.04697878998714236</v>
+        <v>0.06789868276039446</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>393.820518</v>
       </c>
       <c r="I10">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J10">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N10">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O10">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P10">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q10">
-        <v>22218.84106815582</v>
+        <v>11954.87635840453</v>
       </c>
       <c r="R10">
-        <v>133313.046408935</v>
+        <v>71729.25815042715</v>
       </c>
       <c r="S10">
-        <v>0.09192702018531199</v>
+        <v>0.06643516292696422</v>
       </c>
       <c r="T10">
-        <v>0.07137171903567414</v>
+        <v>0.0493657538717367</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>393.820518</v>
       </c>
       <c r="I11">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J11">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N11">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O11">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P11">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q11">
-        <v>11139.46981630289</v>
+        <v>11793.03811381878</v>
       </c>
       <c r="R11">
-        <v>100255.228346726</v>
+        <v>106137.343024369</v>
       </c>
       <c r="S11">
-        <v>0.04608783435264671</v>
+        <v>0.06553580187758713</v>
       </c>
       <c r="T11">
-        <v>0.05367357645905774</v>
+        <v>0.07304620300621202</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H12">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I12">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J12">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N12">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O12">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P12">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q12">
-        <v>38.48959225460267</v>
+        <v>30.009263814332</v>
       </c>
       <c r="R12">
-        <v>346.406330291424</v>
+        <v>270.083374328988</v>
       </c>
       <c r="S12">
-        <v>0.0001592447379797997</v>
+        <v>0.0001667662860788858</v>
       </c>
       <c r="T12">
-        <v>0.0001854553319702806</v>
+        <v>0.0001858776979682669</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H13">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I13">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J13">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>443.74299</v>
       </c>
       <c r="O13">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P13">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q13">
-        <v>41.18940764644</v>
+        <v>36.40487211870666</v>
       </c>
       <c r="R13">
-        <v>370.7046688179601</v>
+        <v>327.64384906836</v>
       </c>
       <c r="S13">
-        <v>0.0001704148068083557</v>
+        <v>0.0002023077059129327</v>
       </c>
       <c r="T13">
-        <v>0.0001984639176793639</v>
+        <v>0.0002254921635572608</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H14">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I14">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J14">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N14">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O14">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P14">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q14">
-        <v>20.68254720357866</v>
+        <v>20.55235439227911</v>
       </c>
       <c r="R14">
-        <v>186.142924832208</v>
+        <v>184.971189530512</v>
       </c>
       <c r="S14">
-        <v>8.557084181100592E-05</v>
+        <v>0.0001142127255564519</v>
       </c>
       <c r="T14">
-        <v>9.965521672087862E-05</v>
+        <v>0.0001273015008265666</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H15">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I15">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J15">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N15">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O15">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P15">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q15">
-        <v>47.13240640169401</v>
+        <v>22.41389141511667</v>
       </c>
       <c r="R15">
-        <v>282.794438410164</v>
+        <v>134.4833484907</v>
       </c>
       <c r="S15">
-        <v>0.0001950030454504922</v>
+        <v>0.0001245575849844497</v>
       </c>
       <c r="T15">
-        <v>0.0001513994747456971</v>
+        <v>9.255458724410848E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H16">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I16">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J16">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N16">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O16">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P16">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q16">
-        <v>23.62994617364934</v>
+        <v>22.11046503644</v>
       </c>
       <c r="R16">
-        <v>212.669515562844</v>
+        <v>198.99418532796</v>
       </c>
       <c r="S16">
-        <v>9.776524942140894E-05</v>
+        <v>0.0001228713959934986</v>
       </c>
       <c r="T16">
-        <v>0.0001138567403646619</v>
+        <v>0.0001369524546623006</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H17">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I17">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J17">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N17">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O17">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P17">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q17">
-        <v>8893.017332537522</v>
+        <v>6008.488104521323</v>
       </c>
       <c r="R17">
-        <v>53358.10399522513</v>
+        <v>36050.92862712793</v>
       </c>
       <c r="S17">
-        <v>0.03679348447242661</v>
+        <v>0.03339013087224213</v>
       </c>
       <c r="T17">
-        <v>0.02856629346644539</v>
+        <v>0.02481109264677019</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H18">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I18">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J18">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>443.74299</v>
       </c>
       <c r="O18">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P18">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q18">
-        <v>9516.809471343302</v>
+        <v>7289.023896927544</v>
       </c>
       <c r="R18">
-        <v>57100.85682805981</v>
+        <v>43734.14338156526</v>
       </c>
       <c r="S18">
-        <v>0.03937432801685534</v>
+        <v>0.04050627339449488</v>
       </c>
       <c r="T18">
-        <v>0.03057004861870292</v>
+        <v>0.03009886082242628</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H19">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I19">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J19">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N19">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O19">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P19">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q19">
-        <v>4778.70094195284</v>
+        <v>4115.015204969447</v>
       </c>
       <c r="R19">
-        <v>28672.20565171704</v>
+        <v>24690.09122981668</v>
       </c>
       <c r="S19">
-        <v>0.01977113642439541</v>
+        <v>0.02286779866166389</v>
       </c>
       <c r="T19">
-        <v>0.01535022010996715</v>
+        <v>0.01699229851458594</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H20">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I20">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J20">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N20">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O20">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P20">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q20">
-        <v>10889.93887703096</v>
+        <v>4487.734213574507</v>
       </c>
       <c r="R20">
-        <v>43559.75550812383</v>
+        <v>17950.93685429803</v>
       </c>
       <c r="S20">
-        <v>0.04505543866553831</v>
+        <v>0.02493905789683329</v>
       </c>
       <c r="T20">
-        <v>0.02332055800339212</v>
+        <v>0.01235425478202978</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H21">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I21">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J21">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N21">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O21">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P21">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q21">
-        <v>5459.697247482872</v>
+        <v>4426.981847299995</v>
       </c>
       <c r="R21">
-        <v>32758.18348489723</v>
+        <v>26561.89108379997</v>
       </c>
       <c r="S21">
-        <v>0.02258865336565044</v>
+        <v>0.02460144726576989</v>
       </c>
       <c r="T21">
-        <v>0.01753772740764888</v>
+        <v>0.01828051497285614</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H22">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I22">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J22">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>138.2190853333333</v>
+        <v>121.928739</v>
       </c>
       <c r="N22">
-        <v>414.657256</v>
+        <v>365.786217</v>
       </c>
       <c r="O22">
-        <v>0.2249223651785973</v>
+        <v>0.2282232151508951</v>
       </c>
       <c r="P22">
-        <v>0.2476599003709697</v>
+        <v>0.2419720431319445</v>
       </c>
       <c r="Q22">
-        <v>31.37812816814578</v>
+        <v>18.771091940702</v>
       </c>
       <c r="R22">
-        <v>282.403153513312</v>
+        <v>168.939827466318</v>
       </c>
       <c r="S22">
-        <v>0.000129822154658846</v>
+        <v>0.0001043139647798074</v>
       </c>
       <c r="T22">
-        <v>0.0001511899928047071</v>
+        <v>0.0001162683423317442</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H23">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I23">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J23">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>443.74299</v>
       </c>
       <c r="O23">
-        <v>0.2406993279341594</v>
+        <v>0.2768624053389947</v>
       </c>
       <c r="P23">
-        <v>0.2650317656414439</v>
+        <v>0.2935413991166814</v>
       </c>
       <c r="Q23">
-        <v>33.57911675838667</v>
+        <v>22.77160832260666</v>
       </c>
       <c r="R23">
-        <v>302.21205082548</v>
+        <v>204.94447490346</v>
       </c>
       <c r="S23">
-        <v>0.0001389284047077154</v>
+        <v>0.0001265454751405968</v>
       </c>
       <c r="T23">
-        <v>0.0001617950692878728</v>
+        <v>0.0001410475831806198</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H24">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I24">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J24">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>74.27261733333333</v>
+        <v>83.50496933333334</v>
       </c>
       <c r="N24">
-        <v>222.817852</v>
+        <v>250.514908</v>
       </c>
       <c r="O24">
-        <v>0.1208629960061633</v>
+        <v>0.1563025480180701</v>
       </c>
       <c r="P24">
-        <v>0.1330811078998542</v>
+        <v>0.1657186665504434</v>
       </c>
       <c r="Q24">
-        <v>16.86117152670044</v>
+        <v>12.85570136882578</v>
       </c>
       <c r="R24">
-        <v>151.750543740304</v>
+        <v>115.701312319432</v>
       </c>
       <c r="S24">
-        <v>6.97604906812383E-05</v>
+        <v>7.14411918093915E-05</v>
       </c>
       <c r="T24">
-        <v>8.124259000218795E-05</v>
+        <v>7.962835046501874E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H25">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I25">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J25">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>169.2560955</v>
+        <v>91.06846250000001</v>
       </c>
       <c r="N25">
-        <v>338.512191</v>
+        <v>182.136925</v>
       </c>
       <c r="O25">
-        <v>0.275428543235871</v>
+        <v>0.1704597085236707</v>
       </c>
       <c r="P25">
-        <v>0.2021811852664618</v>
+        <v>0.1204857969594293</v>
       </c>
       <c r="Q25">
-        <v>38.424067450822</v>
+        <v>14.02011122649167</v>
       </c>
       <c r="R25">
-        <v>230.544404704932</v>
+        <v>84.12066735895</v>
       </c>
       <c r="S25">
-        <v>0.0001589736392334111</v>
+        <v>7.791200391054825E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001234264081504356</v>
+        <v>5.789381163902963E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H26">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I26">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J26">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>84.85695366666668</v>
+        <v>89.83562999999999</v>
       </c>
       <c r="N26">
-        <v>254.570861</v>
+        <v>269.50689</v>
       </c>
       <c r="O26">
-        <v>0.138086767645209</v>
+        <v>0.1681521229683693</v>
       </c>
       <c r="P26">
-        <v>0.1520460408212704</v>
+        <v>0.1782820942415013</v>
       </c>
       <c r="Q26">
-        <v>19.26399933619689</v>
+        <v>13.83031501934</v>
       </c>
       <c r="R26">
-        <v>173.375994025772</v>
+        <v>124.47283517406</v>
       </c>
       <c r="S26">
-        <v>7.970181929814724E-05</v>
+        <v>7.685727598471934E-05</v>
       </c>
       <c r="T26">
-        <v>9.28201932703623E-05</v>
+        <v>8.566511774084622E-05</v>
       </c>
     </row>
   </sheetData>
